--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Download/kangjindemo/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/BaoCaoNhatKyThuTien.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Download/kangjindemo/28fef5a1-f0f2-4b94-a4ad-081b227f3b77/BaoCaoNhatKyThuTien.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -52,106 +52,142 @@
     <t>Ngày lập phiếu</t>
   </si>
   <si>
-    <t>Tên người nộp</t>
-  </si>
-  <si>
-    <t>Khoản mục</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>Loại phiếu</t>
   </si>
   <si>
-    <t>Chi nhánh</t>
-  </si>
-  <si>
-    <t>Tiền mặt</t>
-  </si>
-  <si>
     <t>Số tài khoản</t>
   </si>
   <si>
-    <t>Ngân hàng</t>
-  </si>
-  <si>
     <t>Tiền Thu</t>
   </si>
   <si>
-    <t>Từ ngày 29/08/2022 đến ngày 04/09/2022</t>
-  </si>
-  <si>
-    <t>Chi nhánh: KangjinDemo</t>
+    <t>Từ ngày 01/08/2022 đến ngày 31/08/2022</t>
+  </si>
+  <si>
+    <t>Chi nhánh: KJ HCM</t>
   </si>
   <si>
     <t xml:space="preserve">Kangjin Sài Gòn CS2, </t>
   </si>
   <si>
-    <t>HDBL0000000088</t>
-  </si>
-  <si>
-    <t>TTHDBL0000000088</t>
-  </si>
-  <si>
-    <t>J108457</t>
-  </si>
-  <si>
-    <t>KH_NhomHoTro</t>
-  </si>
-  <si>
-    <t>same dluong, + update again hoadon / KH_NhomHoTro (J108457) /HDBL0000000088</t>
+    <t>HDBL0000000107</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000107</t>
+  </si>
+  <si>
+    <t>J107653</t>
   </si>
   <si>
     <t>Thu tiền khách trả</t>
   </si>
   <si>
-    <t>KangjinDemo</t>
-  </si>
-  <si>
-    <t>HDBL0000000082</t>
-  </si>
-  <si>
-    <t>TTHDBL0000000082</t>
-  </si>
-  <si>
-    <t>J107297</t>
-  </si>
-  <si>
-    <t>Juilie Nguyễn</t>
-  </si>
-  <si>
-    <t>Juilie Nguyễn (J107297) /HDBL0000000082</t>
-  </si>
-  <si>
-    <t>HDBL0000000080</t>
-  </si>
-  <si>
-    <t>TTHDBL0000000080</t>
-  </si>
-  <si>
-    <t>J107851</t>
-  </si>
-  <si>
-    <t>Trần Thị Thái</t>
-  </si>
-  <si>
-    <t>Trần Thị Thái (J107851) /HDBL0000000080</t>
-  </si>
-  <si>
-    <t>HDBL0000000077</t>
-  </si>
-  <si>
-    <t>TTHDBL0000000077</t>
+    <t>25555</t>
+  </si>
+  <si>
+    <t>HDBL0000000091</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000091</t>
+  </si>
+  <si>
+    <t>J107711</t>
+  </si>
+  <si>
+    <t>HDBL0000000090</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000090</t>
+  </si>
+  <si>
+    <t>J107402</t>
+  </si>
+  <si>
+    <t>HDBL0000000089</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000089</t>
+  </si>
+  <si>
+    <t>J107766</t>
+  </si>
+  <si>
+    <t>Nhóm mặc định</t>
+  </si>
+  <si>
+    <t>HDBL0000000106</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000106</t>
+  </si>
+  <si>
+    <t>KH0000032</t>
+  </si>
+  <si>
+    <t>HDBL0000000105</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000105</t>
+  </si>
+  <si>
+    <t>J107070</t>
+  </si>
+  <si>
+    <t>HDBL0000000104</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000104</t>
   </si>
   <si>
     <t>J108486</t>
   </si>
   <si>
-    <t>Võ Thị Thùy Dung</t>
-  </si>
-  <si>
-    <t>Võ Thị Thùy Dung (J108486) /HDBL0000000077</t>
+    <t>HDBL0000000087</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000087</t>
+  </si>
+  <si>
+    <t>J108297</t>
+  </si>
+  <si>
+    <t>HDBL0000000097</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000097</t>
+  </si>
+  <si>
+    <t>J107494</t>
+  </si>
+  <si>
+    <t>HDBL0000000096</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000096</t>
+  </si>
+  <si>
+    <t>J106944</t>
+  </si>
+  <si>
+    <t>HDBL0000000092</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000092_2</t>
+  </si>
+  <si>
+    <t>HDBL0000000086</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000086</t>
+  </si>
+  <si>
+    <t>HDBL0000000085</t>
+  </si>
+  <si>
+    <t>TTHDBL0000000085</t>
+  </si>
+  <si>
+    <t>J107618</t>
   </si>
 </sst>
 </file>
@@ -224,7 +260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799979984760284"/>
+        <fgColor theme="8" tint="0.79998"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -812,15 +848,13 @@
     <col min="2" max="3" width="18.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="26" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.75" style="7" customWidth="1"/>
-    <col min="9" max="11" width="16.375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="14.75" style="18" customWidth="1"/>
-    <col min="13" max="14" width="29.875" style="14" customWidth="1"/>
-    <col min="15" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="14.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="29.875" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.5" customHeight="1">
+    <row r="1" spans="1:9" ht="34.5" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
@@ -831,17 +865,11 @@
       <c r="F1" s="34"/>
       <c r="G1" s="34"/>
       <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -850,20 +878,14 @@
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="29.25" customHeight="1">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -879,215 +901,374 @@
       <c r="E4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="28">
+        <v>44804.4380671296</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="F5" s="6">
+        <v>600000</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15">
-      <c r="A5" s="3" t="s">
+      <c r="D6" s="28">
+        <v>44804.4380671296</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>400000</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D7" s="28">
+        <v>44803.4310185185</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="28">
-        <v>44802.7155208333</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="F7" s="6">
+        <v>800000</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6">
-        <v>549000</v>
-      </c>
-      <c r="H5" s="6">
-        <v>549000</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19" t="s">
+      <c r="D8" s="28">
+        <v>44803.3535416667</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="F8" s="6">
+        <v>900000</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D9" s="28">
+        <v>44802.7425115741</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F9" s="6">
+        <v>1030000</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28">
-        <v>44802.5986342593</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6">
-        <v>650000</v>
-      </c>
-      <c r="H6" s="6">
-        <v>650000</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19" t="s">
+      <c r="D10" s="28">
+        <v>44792.4225810185</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="F10" s="6">
+        <v>992000</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="28">
-        <v>44802.5026967593</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D11" s="28">
+        <v>44791.4163194444</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F11" s="6">
+        <v>294000</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6">
-        <v>634000</v>
-      </c>
-      <c r="H7" s="6">
-        <v>634000</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D12" s="28">
+        <v>44790.407662037</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F12" s="6">
+        <v>975500</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="28">
-        <v>44802.4158333333</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="D13" s="28">
+        <v>44777.6639467593</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="6">
-        <v>54140000</v>
-      </c>
-      <c r="H8" s="6">
-        <v>54140000</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19" t="s">
+      <c r="F13" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="28">
+        <v>44777.6415162037</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1952000</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="28">
+        <v>44777.6280439815</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2524000</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="28">
+        <v>44777.5549305556</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1530000</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="28">
+        <v>44776.650162037</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1544000</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="28">
+        <v>44775.6478819444</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6">
+        <v>27000</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A19" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="8">
-        <f>SUM(G$5:G8)</f>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="8">
+        <f>SUM(F$5:F18)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <f>SUM(H$5:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup orientation="landscape" scale="95" r:id="rId1"/>
